--- a/www/IndicatorsPerCountry/Ecuador_GDPperCapita_TerritorialRef_1946_2012_CCode_218.xlsx
+++ b/www/IndicatorsPerCountry/Ecuador_GDPperCapita_TerritorialRef_1946_2012_CCode_218.xlsx
@@ -396,13 +396,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Ecuador_GDPperCapita_TerritorialRef_1946_2012_CCode_218.xlsx
+++ b/www/IndicatorsPerCountry/Ecuador_GDPperCapita_TerritorialRef_1946_2012_CCode_218.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="135">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,337 +36,352 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>411.240950689</t>
+    <t>760</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>483.065752146</t>
-  </si>
-  <si>
-    <t>594.388437634</t>
-  </si>
-  <si>
-    <t>606.276206387</t>
-  </si>
-  <si>
-    <t>618.401730514</t>
-  </si>
-  <si>
-    <t>630.769765125</t>
-  </si>
-  <si>
-    <t>643.385160427</t>
-  </si>
-  <si>
-    <t>656.252863636</t>
-  </si>
-  <si>
-    <t>669.377920908</t>
-  </si>
-  <si>
-    <t>682.765479327</t>
-  </si>
-  <si>
-    <t>703.248443706</t>
-  </si>
-  <si>
-    <t>724.345897018</t>
-  </si>
-  <si>
-    <t>746.076273928</t>
-  </si>
-  <si>
-    <t>768.458562146</t>
-  </si>
-  <si>
-    <t>791.51231901</t>
-  </si>
-  <si>
-    <t>815.257688581</t>
-  </si>
-  <si>
-    <t>831.562842352</t>
-  </si>
-  <si>
-    <t>848.194099199</t>
-  </si>
-  <si>
-    <t>856.676040191</t>
-  </si>
-  <si>
-    <t>865.242800593</t>
-  </si>
-  <si>
-    <t>873.895228599</t>
-  </si>
-  <si>
-    <t>891.373133171</t>
-  </si>
-  <si>
-    <t>909.200595835</t>
-  </si>
-  <si>
-    <t>918.292601793</t>
-  </si>
-  <si>
-    <t>927.475527811</t>
-  </si>
-  <si>
-    <t>936.750283089</t>
-  </si>
-  <si>
-    <t>946.11778592</t>
-  </si>
-  <si>
-    <t>955.578963779</t>
-  </si>
-  <si>
-    <t>965.134753417</t>
-  </si>
-  <si>
-    <t>994.088796019</t>
-  </si>
-  <si>
-    <t>1023.9114599</t>
-  </si>
-  <si>
-    <t>1054.6288037</t>
-  </si>
-  <si>
-    <t>1065.17509173</t>
-  </si>
-  <si>
-    <t>1043.8715899</t>
-  </si>
-  <si>
-    <t>1022.9941581</t>
-  </si>
-  <si>
-    <t>1033.22409968</t>
-  </si>
-  <si>
-    <t>1043.55634068</t>
-  </si>
-  <si>
-    <t>1053.99190409</t>
-  </si>
-  <si>
-    <t>1064.53182313</t>
-  </si>
-  <si>
-    <t>1109.44535981</t>
-  </si>
-  <si>
-    <t>1091.08758787</t>
-  </si>
-  <si>
-    <t>1112.78968076</t>
-  </si>
-  <si>
-    <t>1222.40426628</t>
-  </si>
-  <si>
-    <t>1206.81139995</t>
-  </si>
-  <si>
-    <t>1181.12594515</t>
-  </si>
-  <si>
-    <t>1288.94630545</t>
-  </si>
-  <si>
-    <t>1391.54899517</t>
-  </si>
-  <si>
-    <t>1539.41051676</t>
-  </si>
-  <si>
-    <t>1523.70851694</t>
-  </si>
-  <si>
-    <t>1607.41004098</t>
-  </si>
-  <si>
-    <t>1606.37057358</t>
-  </si>
-  <si>
-    <t>1746.52016733</t>
-  </si>
-  <si>
-    <t>1760.74519293</t>
-  </si>
-  <si>
-    <t>1877.02574762</t>
-  </si>
-  <si>
-    <t>1911.55774714</t>
-  </si>
-  <si>
-    <t>1922.1571173</t>
-  </si>
-  <si>
-    <t>1940.66502041</t>
-  </si>
-  <si>
-    <t>1939.06650001</t>
-  </si>
-  <si>
-    <t>1975.26596292</t>
-  </si>
-  <si>
-    <t>2026.01025647</t>
-  </si>
-  <si>
-    <t>2068.77936692</t>
-  </si>
-  <si>
-    <t>2107.81846238</t>
-  </si>
-  <si>
-    <t>2089.60855017</t>
-  </si>
-  <si>
-    <t>2178.76288657</t>
-  </si>
-  <si>
-    <t>2184.06784748</t>
-  </si>
-  <si>
-    <t>2171.57890552</t>
-  </si>
-  <si>
-    <t>2252.6927695</t>
-  </si>
-  <si>
-    <t>2274.3247301</t>
-  </si>
-  <si>
-    <t>2259.11033569</t>
-  </si>
-  <si>
-    <t>2334.89252065</t>
-  </si>
-  <si>
-    <t>2409.28556716</t>
-  </si>
-  <si>
-    <t>2677.05388994</t>
-  </si>
-  <si>
-    <t>3258.33616912</t>
-  </si>
-  <si>
-    <t>3369.62210908</t>
-  </si>
-  <si>
-    <t>3456.17121256</t>
-  </si>
-  <si>
-    <t>3667.73701579</t>
-  </si>
-  <si>
-    <t>3796.85662863</t>
-  </si>
-  <si>
-    <t>3933.13262649</t>
-  </si>
-  <si>
-    <t>4026.68936789</t>
-  </si>
-  <si>
-    <t>4108.57476427</t>
-  </si>
-  <si>
-    <t>4154.72480663</t>
-  </si>
-  <si>
-    <t>4091.0703574</t>
-  </si>
-  <si>
-    <t>3870.71219644</t>
-  </si>
-  <si>
-    <t>3928.31598777</t>
-  </si>
-  <si>
-    <t>3994.8538199</t>
-  </si>
-  <si>
-    <t>4015.77210537</t>
-  </si>
-  <si>
-    <t>3682.36972564</t>
-  </si>
-  <si>
-    <t>3971.32746969</t>
-  </si>
-  <si>
-    <t>3888.37014991</t>
-  </si>
-  <si>
-    <t>3902.58227338</t>
-  </si>
-  <si>
-    <t>4061.17784221</t>
-  </si>
-  <si>
-    <t>4074.28596876</t>
-  </si>
-  <si>
-    <t>4010.44572649</t>
-  </si>
-  <si>
-    <t>4108.7413905</t>
-  </si>
-  <si>
-    <t>4058.87031417</t>
-  </si>
-  <si>
-    <t>4076.93415509</t>
-  </si>
-  <si>
-    <t>4115.1065044</t>
-  </si>
-  <si>
-    <t>4096.73436161</t>
-  </si>
-  <si>
-    <t>3809.3991756</t>
-  </si>
-  <si>
-    <t>3911.08113233</t>
-  </si>
-  <si>
-    <t>4037.61465565</t>
-  </si>
-  <si>
-    <t>4111.50142509</t>
-  </si>
-  <si>
-    <t>4165.90638954</t>
-  </si>
-  <si>
-    <t>4433.72879327</t>
-  </si>
-  <si>
-    <t>4587.52905802</t>
-  </si>
-  <si>
-    <t>4717.54451012</t>
-  </si>
-  <si>
-    <t>4739.46795746</t>
-  </si>
-  <si>
-    <t>5004.9601274</t>
-  </si>
-  <si>
-    <t>4947.7139387</t>
-  </si>
-  <si>
-    <t>5049.55441324</t>
+    <t>893</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>1299</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1462</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1784</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1892</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>2259</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>2381</t>
+  </si>
+  <si>
+    <t>2571</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>2815</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>2925</t>
+  </si>
+  <si>
+    <t>3202</t>
+  </si>
+  <si>
+    <t>3185</t>
+  </si>
+  <si>
+    <t>3352</t>
+  </si>
+  <si>
+    <t>3349</t>
+  </si>
+  <si>
+    <t>3381</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>3441</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>3633</t>
+  </si>
+  <si>
+    <t>3716</t>
+  </si>
+  <si>
+    <t>3698</t>
+  </si>
+  <si>
+    <t>3843</t>
+  </si>
+  <si>
+    <t>4090</t>
+  </si>
+  <si>
+    <t>4074</t>
+  </si>
+  <si>
+    <t>4163</t>
+  </si>
+  <si>
+    <t>4264</t>
+  </si>
+  <si>
+    <t>4366</t>
+  </si>
+  <si>
+    <t>4535</t>
+  </si>
+  <si>
+    <t>4658</t>
+  </si>
+  <si>
+    <t>4801</t>
+  </si>
+  <si>
+    <t>5244</t>
+  </si>
+  <si>
+    <t>5392</t>
+  </si>
+  <si>
+    <t>5514</t>
+  </si>
+  <si>
+    <t>5877</t>
+  </si>
+  <si>
+    <t>6073</t>
+  </si>
+  <si>
+    <t>6314</t>
+  </si>
+  <si>
+    <t>6472</t>
+  </si>
+  <si>
+    <t>6582</t>
+  </si>
+  <si>
+    <t>6664</t>
+  </si>
+  <si>
+    <t>6558</t>
+  </si>
+  <si>
+    <t>6252</t>
+  </si>
+  <si>
+    <t>6336</t>
+  </si>
+  <si>
+    <t>6433</t>
+  </si>
+  <si>
+    <t>6452</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>6357</t>
+  </si>
+  <si>
+    <t>6207</t>
+  </si>
+  <si>
+    <t>6221</t>
+  </si>
+  <si>
+    <t>6513.33684307474</t>
+  </si>
+  <si>
+    <t>6715.47433899589</t>
+  </si>
+  <si>
+    <t>6770.17856159952</t>
+  </si>
+  <si>
+    <t>6940.09026470955</t>
+  </si>
+  <si>
+    <t>6985.15549349466</t>
+  </si>
+  <si>
+    <t>6993.64384585655</t>
+  </si>
+  <si>
+    <t>7181.10089294284</t>
+  </si>
+  <si>
+    <t>7307.16944535087</t>
+  </si>
+  <si>
+    <t>6884.79262151431</t>
+  </si>
+  <si>
+    <t>6908.24297556069</t>
+  </si>
+  <si>
+    <t>7131.19397513224</t>
+  </si>
+  <si>
+    <t>7359.70723294288</t>
+  </si>
+  <si>
+    <t>7468.50353760932</t>
+  </si>
+  <si>
+    <t>7958.92070338642</t>
+  </si>
+  <si>
+    <t>8256.7776955984</t>
+  </si>
+  <si>
+    <t>8521.55980047244</t>
+  </si>
+  <si>
+    <t>8633.58439957286</t>
+  </si>
+  <si>
+    <t>9103.87168745247</t>
+  </si>
+  <si>
+    <t>9081.37048705939</t>
+  </si>
+  <si>
+    <t>9327.21276477354</t>
+  </si>
+  <si>
+    <t>9985</t>
+  </si>
+  <si>
+    <t>10398</t>
+  </si>
+  <si>
+    <t>10760</t>
+  </si>
+  <si>
+    <t>11036</t>
+  </si>
+  <si>
+    <t>10905</t>
+  </si>
+  <si>
+    <t>10527</t>
   </si>
   <si>
     <t>Description</t>
@@ -1640,7 +1655,7 @@
         <v>1938.0</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71">
@@ -1657,7 +1672,7 @@
         <v>1939.0</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -1674,7 +1689,7 @@
         <v>1940.0</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
@@ -1691,7 +1706,7 @@
         <v>1941.0</v>
       </c>
       <c r="E73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
@@ -1708,7 +1723,7 @@
         <v>1942.0</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -1725,7 +1740,7 @@
         <v>1943.0</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
@@ -1742,7 +1757,7 @@
         <v>1944.0</v>
       </c>
       <c r="E76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
@@ -1759,7 +1774,7 @@
         <v>1945.0</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
@@ -1776,7 +1791,7 @@
         <v>1946.0</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79">
@@ -1793,7 +1808,7 @@
         <v>1947.0</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
@@ -1810,7 +1825,7 @@
         <v>1948.0</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81">
@@ -1827,7 +1842,7 @@
         <v>1949.0</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82">
@@ -1844,7 +1859,7 @@
         <v>1950.0</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
@@ -1861,7 +1876,7 @@
         <v>1951.0</v>
       </c>
       <c r="E83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -1878,7 +1893,7 @@
         <v>1952.0</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85">
@@ -1895,7 +1910,7 @@
         <v>1953.0</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86">
@@ -1912,7 +1927,7 @@
         <v>1954.0</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
@@ -1929,7 +1944,7 @@
         <v>1955.0</v>
       </c>
       <c r="E87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88">
@@ -1946,7 +1961,7 @@
         <v>1956.0</v>
       </c>
       <c r="E88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
@@ -1963,7 +1978,7 @@
         <v>1957.0</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90">
@@ -1980,7 +1995,7 @@
         <v>1958.0</v>
       </c>
       <c r="E90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91">
@@ -1997,7 +2012,7 @@
         <v>1959.0</v>
       </c>
       <c r="E91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92">
@@ -2014,7 +2029,7 @@
         <v>1960.0</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93">
@@ -2031,7 +2046,7 @@
         <v>1961.0</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94">
@@ -2048,7 +2063,7 @@
         <v>1962.0</v>
       </c>
       <c r="E94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95">
@@ -2065,7 +2080,7 @@
         <v>1963.0</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
@@ -2082,7 +2097,7 @@
         <v>1964.0</v>
       </c>
       <c r="E96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97">
@@ -2099,7 +2114,7 @@
         <v>1965.0</v>
       </c>
       <c r="E97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98">
@@ -2116,7 +2131,7 @@
         <v>1966.0</v>
       </c>
       <c r="E98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99">
@@ -2133,7 +2148,7 @@
         <v>1967.0</v>
       </c>
       <c r="E99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
@@ -2150,7 +2165,7 @@
         <v>1968.0</v>
       </c>
       <c r="E100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101">
@@ -2167,7 +2182,7 @@
         <v>1969.0</v>
       </c>
       <c r="E101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
@@ -2184,7 +2199,7 @@
         <v>1970.0</v>
       </c>
       <c r="E102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103">
@@ -2201,7 +2216,7 @@
         <v>1971.0</v>
       </c>
       <c r="E103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
@@ -2218,7 +2233,7 @@
         <v>1972.0</v>
       </c>
       <c r="E104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
@@ -2235,7 +2250,7 @@
         <v>1973.0</v>
       </c>
       <c r="E105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106">
@@ -2252,7 +2267,7 @@
         <v>1974.0</v>
       </c>
       <c r="E106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
@@ -2269,7 +2284,7 @@
         <v>1975.0</v>
       </c>
       <c r="E107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108">
@@ -2286,7 +2301,7 @@
         <v>1976.0</v>
       </c>
       <c r="E108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
@@ -2303,7 +2318,7 @@
         <v>1977.0</v>
       </c>
       <c r="E109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110">
@@ -2320,7 +2335,7 @@
         <v>1978.0</v>
       </c>
       <c r="E110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
@@ -2337,7 +2352,7 @@
         <v>1979.0</v>
       </c>
       <c r="E111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112">
@@ -2354,7 +2369,7 @@
         <v>1980.0</v>
       </c>
       <c r="E112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113">
@@ -2371,7 +2386,7 @@
         <v>1981.0</v>
       </c>
       <c r="E113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114">
@@ -2388,7 +2403,7 @@
         <v>1982.0</v>
       </c>
       <c r="E114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115">
@@ -2405,7 +2420,7 @@
         <v>1983.0</v>
       </c>
       <c r="E115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116">
@@ -2422,7 +2437,7 @@
         <v>1984.0</v>
       </c>
       <c r="E116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
@@ -2439,7 +2454,7 @@
         <v>1985.0</v>
       </c>
       <c r="E117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118">
@@ -2456,7 +2471,7 @@
         <v>1986.0</v>
       </c>
       <c r="E118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119">
@@ -2473,7 +2488,7 @@
         <v>1987.0</v>
       </c>
       <c r="E119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120">
@@ -2490,7 +2505,7 @@
         <v>1988.0</v>
       </c>
       <c r="E120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121">
@@ -2507,7 +2522,7 @@
         <v>1989.0</v>
       </c>
       <c r="E121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122">
@@ -2524,7 +2539,7 @@
         <v>1990.0</v>
       </c>
       <c r="E122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123">
@@ -2541,7 +2556,7 @@
         <v>1991.0</v>
       </c>
       <c r="E123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124">
@@ -2558,7 +2573,7 @@
         <v>1992.0</v>
       </c>
       <c r="E124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125">
@@ -2575,7 +2590,7 @@
         <v>1993.0</v>
       </c>
       <c r="E125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
@@ -2592,7 +2607,7 @@
         <v>1994.0</v>
       </c>
       <c r="E126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
@@ -2609,7 +2624,7 @@
         <v>1995.0</v>
       </c>
       <c r="E127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128">
@@ -2626,7 +2641,7 @@
         <v>1996.0</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129">
@@ -2643,7 +2658,7 @@
         <v>1997.0</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130">
@@ -2660,7 +2675,7 @@
         <v>1998.0</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131">
@@ -2677,7 +2692,7 @@
         <v>1999.0</v>
       </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132">
@@ -2694,7 +2709,7 @@
         <v>2000.0</v>
       </c>
       <c r="E132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="133">
@@ -2711,7 +2726,7 @@
         <v>2001.0</v>
       </c>
       <c r="E133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134">
@@ -2728,7 +2743,7 @@
         <v>2002.0</v>
       </c>
       <c r="E134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135">
@@ -2745,7 +2760,7 @@
         <v>2003.0</v>
       </c>
       <c r="E135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136">
@@ -2762,7 +2777,7 @@
         <v>2004.0</v>
       </c>
       <c r="E136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137">
@@ -2779,7 +2794,7 @@
         <v>2005.0</v>
       </c>
       <c r="E137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138">
@@ -2796,7 +2811,7 @@
         <v>2006.0</v>
       </c>
       <c r="E138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="139">
@@ -2813,7 +2828,7 @@
         <v>2007.0</v>
       </c>
       <c r="E139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140">
@@ -2830,7 +2845,7 @@
         <v>2008.0</v>
       </c>
       <c r="E140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141">
@@ -2847,7 +2862,7 @@
         <v>2009.0</v>
       </c>
       <c r="E141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142">
@@ -2864,7 +2879,109 @@
         <v>2010.0</v>
       </c>
       <c r="E142" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E143" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2882,50 +2999,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
